--- a/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.33/reference.xlsx
@@ -502,7 +502,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.33_2021-01-28T18:52</v>
+        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.33_2021-01-29T11:09</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2516,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Doses discarded by reasons Vs discarded stock</v>
       </c>
     </row>
     <row r="4">
@@ -2524,7 +2524,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose Vs People given 1st dose</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vaccination cards</v>
       </c>
     </row>
     <row r="5">
@@ -2532,7 +2532,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Essential workers given last dose Vs People given last dose</v>
+        <v>COVAX - Frontline healthcare workers given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="6">
@@ -2540,7 +2540,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received vials</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received safety boxes</v>
       </c>
     </row>
     <row r="7">
@@ -2548,7 +2548,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received cold boxes</v>
+        <v>COVAX - Essential workers given 1st dose Vs People given 1st dose</v>
       </c>
     </row>
     <row r="8">
@@ -2556,7 +2556,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Essential workers given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="9">
@@ -2564,7 +2564,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vials</v>
+        <v>COVAX - Frontline healthcare workers given 1st dose Vs People given 1st dose</v>
       </c>
     </row>
     <row r="10">
@@ -2572,7 +2572,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received cold boxes</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received vials</v>
       </c>
     </row>
     <row r="11">
@@ -2580,7 +2580,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received vaccination cards</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received cold boxes</v>
       </c>
     </row>
     <row r="12">
@@ -2588,7 +2588,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons Vs discarded stock</v>
+        <v>COVAX - People with underlying medical conditions given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="13">
@@ -2596,7 +2596,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vaccination cards</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received syringes</v>
       </c>
     </row>
     <row r="14">
@@ -2604,7 +2604,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received safety boxes</v>
+        <v>COVAX - People with underlying medical conditions given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="15">
@@ -2612,7 +2612,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose Vs People given 1st dose</v>
+        <v>COVAX - Essential workers given 2+ dose Vs People given 2+ dose</v>
       </c>
     </row>
     <row r="16">
@@ -2620,7 +2620,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - People with underlying medical conditions given 2+ dose Vs People given 2+ dose</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received vials</v>
       </c>
     </row>
     <row r="17">
@@ -2628,7 +2628,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received syringes</v>
+        <v>COVAX - Staff available at centre today Vs Staff expected at centre today</v>
       </c>
     </row>
     <row r="18">
@@ -2636,7 +2636,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - People with underlying medical conditions given last dose Vs People given last dose</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received syringes with needle 1ml</v>
       </c>
     </row>
     <row r="19">
@@ -2644,7 +2644,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Staff available at centre today Vs Staff expected at centre today</v>
+        <v>COVAX - Distributed+Redistributed+Discarded Vs Opening balance+Received cold boxes</v>
       </c>
     </row>
     <row r="20">
@@ -2652,7 +2652,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Stock on hand Vs Opening balance + Received syringes with needle 1ml</v>
+        <v>COVAX - Frontline healthcare workers given last dose Vs People given last dose</v>
       </c>
     </row>
     <row r="21">
@@ -2660,7 +2660,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose Vs People given last dose</v>
+        <v>COVAX - Frontline health workers+Essential workers+People with underlying medical conditions Vs Target population</v>
       </c>
     </row>
     <row r="22">
@@ -2668,7 +2668,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Frontline health workers+Essential workers+People with underlying medical conditions Vs Target population</v>
+        <v>COVAX - Stock on hand Vs Opening balance + Received vaccination cards</v>
       </c>
     </row>
   </sheetData>
@@ -10876,7 +10876,7 @@
         <v>default</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>GLevLNI9wkl</v>

--- a/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVAX_AGG/COVAX_AGG_COMPLETE_V1_DHIS2.33/reference.xlsx
@@ -502,7 +502,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.33_2021-01-29T11:09</v>
+        <v>COVAX_AGG_COMPLETE_V1.0_DHIS2.33_2021-02-02T12:36</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
         <v>Other reason</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>BaOUxUBEAp1</v>
@@ -548,7 +548,7 @@
         <v>Partial use</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>BoDgo1kqT4s</v>
@@ -559,7 +559,7 @@
         <v>80+ years</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>c2hLbh0drQI</v>
@@ -570,7 +570,7 @@
         <v>Female</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>FFA9e1yIXCT</v>
@@ -581,7 +581,7 @@
         <v>Vaccine3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>IuU1MxFm2zp</v>
@@ -592,7 +592,7 @@
         <v>Vaccine2</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>j6Jq0MIuswR</v>
@@ -603,7 +603,7 @@
         <v>Contamination</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>jAbqv8bnCqT</v>
@@ -614,7 +614,7 @@
         <v>60-69 years</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>jLdW7zUyymx</v>
@@ -625,7 +625,7 @@
         <v>Open vial</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>L8NDNe93WYp</v>
@@ -636,7 +636,7 @@
         <v>Non-Serious AEFI</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>lMnq1h3SBZ4</v>
@@ -647,7 +647,7 @@
         <v>60+ years</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>m9UzfatWfRs</v>
@@ -658,7 +658,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>mArfwb3Uoxu</v>
@@ -669,7 +669,7 @@
         <v>Color change (VVM)</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>mlwTknbcGP4</v>
@@ -680,7 +680,7 @@
         <v>Male</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>MP15bHaQh2x</v>
@@ -691,7 +691,7 @@
         <v>Closed vial</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>Rcn9QLnWlua</v>
@@ -702,7 +702,7 @@
         <v>Exposure</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>siAKZpu6g5x</v>
@@ -713,7 +713,7 @@
         <v>Expiry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>tYiGorSNnzL</v>
@@ -724,7 +724,7 @@
         <v>Vaccine1</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C19" s="5" t="str">
         <v>u0GOii8aqZu</v>
@@ -735,7 +735,7 @@
         <v>70-79 years</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C20" s="4" t="str">
         <v>X4WuLNVuC6H</v>
@@ -746,7 +746,7 @@
         <v>default</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2018-05-30</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>xYerKDKCefk</v>
@@ -757,7 +757,7 @@
         <v>&lt;60 years</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C22" s="4" t="str">
         <v>ZzSc6xP10nz</v>
@@ -774,7 +774,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -792,24 +792,24 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Open vial, Other reason</v>
+        <v>70-79 years, Male, Vaccine3</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AnEOc7eqTPG</v>
+        <v>BLONsXiboym</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>70-79 years, Male, Vaccine3</v>
+        <v>Closed, Contamination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>BLONsXiboym</v>
+        <v>BoDI0ni8B3K</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>&lt;60 years, Female, Vaccine1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>CAfB8ipjDhr</v>
@@ -828,7 +828,7 @@
         <v>70-79 years, Female, Vaccine2</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>CElAh1tA7Wf</v>
@@ -839,7 +839,7 @@
         <v>60-69 years, Female, Vaccine1</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CJAFdzt8l6p</v>
@@ -850,7 +850,7 @@
         <v>Vaccine2, Non-Serious AEFI</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>csFACTpDkcv</v>
@@ -858,156 +858,156 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Open vial, Exposure</v>
+        <v>60+ years, Female, Vaccine3</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>d7iBKO4OtOL</v>
+        <v>doV3TW4iOxr</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>60+ years, Female, Vaccine3</v>
+        <v>60-69 years, Male, Vaccine2</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>doV3TW4iOxr</v>
+        <v>DTiUTarVTR8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>60-69 years, Male, Vaccine2</v>
+        <v>60-69 years, Male, Vaccine1</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>DTiUTarVTR8</v>
+        <v>Eds0DVXiLk2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>60-69 years, Male, Vaccine1</v>
+        <v>60+ years, Male, Vaccine3</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Eds0DVXiLk2</v>
+        <v>EgYbpH9AslA</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>60+ years, Male, Vaccine3</v>
+        <v>80+ years, Male, Vaccine2</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>EgYbpH9AslA</v>
+        <v>eVbaXGtmja4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>80+ years, Male, Vaccine2</v>
+        <v>80+ years, Female, Vaccine3</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>eVbaXGtmja4</v>
+        <v>EWm4YRV997y</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Closed vial, Color change (VVM)</v>
+        <v>Opened, Contamination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>EWaVKxhCw7E</v>
+        <v>FDzJJUEoO4p</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>80+ years, Female, Vaccine3</v>
+        <v>60-69 years, Female, Vaccine2</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>EWm4YRV997y</v>
+        <v>Fs3mk5kekbu</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>60-69 years, Female, Vaccine2</v>
+        <v>&lt;60 years, Female</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Fs3mk5kekbu</v>
+        <v>FsZSFGKirY0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>&lt;60 years, Female</v>
+        <v>Vaccine3</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>FsZSFGKirY0</v>
+        <v>g8LPkyYr8vl</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Vaccine3</v>
+        <v>Vaccine1, Serious AEFI</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>g8LPkyYr8vl</v>
+        <v>GPq1m6ZyFrl</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Vaccine1, Serious AEFI</v>
+        <v>80+ years, Female</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>GPq1m6ZyFrl</v>
+        <v>GVJmfnpis1B</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>80+ years, Female</v>
+        <v>Vaccine1, Non-Serious AEFI</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>GVJmfnpis1B</v>
+        <v>h2yCPynl6UQ</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Vaccine1, Non-Serious AEFI</v>
+        <v>Opened, Other reason</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>h2yCPynl6UQ</v>
+        <v>hdq20lFpfII</v>
       </c>
     </row>
     <row r="22">
@@ -1015,7 +1015,7 @@
         <v>Vaccine3, Non-Serious AEFI</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C22" s="4" t="str">
         <v>Hj01f2Rkx8s</v>
@@ -1026,7 +1026,7 @@
         <v>default</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>2020-03-26</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>HllvX50cXC0</v>
@@ -1037,7 +1037,7 @@
         <v>80+ years, Male, Vaccine3</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>huTkIjvVR6R</v>
@@ -1048,7 +1048,7 @@
         <v>70-79 years, Male, Vaccine2</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C25" s="5" t="str">
         <v>hVXSS0DkOJ0</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Open vial, Color change (VVM)</v>
+        <v>Opened, Color change</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>iemSXBenfIl</v>
+        <v>ikD0qzTRApO</v>
       </c>
     </row>
     <row r="27">
@@ -1070,7 +1070,7 @@
         <v>60+ years, Female</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C27" s="5" t="str">
         <v>iUe9y7FGGws</v>
@@ -1081,7 +1081,7 @@
         <v>&lt;60 years, Male, Vaccine1</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>IWFrV7VrJuu</v>
@@ -1092,7 +1092,7 @@
         <v>60-69 years, Female, Vaccine3</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C29" s="5" t="str">
         <v>JQYfvub8ZCm</v>
@@ -1103,7 +1103,7 @@
         <v>80+ years, Female, Vaccine1</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C30" s="4" t="str">
         <v>JsZNv7qtndI</v>
@@ -1114,7 +1114,7 @@
         <v>60+ years, Male, Vaccine2</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C31" s="5" t="str">
         <v>JwCdtXKTTK1</v>
@@ -1122,24 +1122,24 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Open vial, Contamination</v>
+        <v>80+ years, Male</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>k3G5n6cjo1H</v>
+        <v>kEOrzHZcX3f</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>80+ years, Male</v>
+        <v>Opened, Exposure</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>kEOrzHZcX3f</v>
+        <v>ki1cZuU1Mor</v>
       </c>
     </row>
     <row r="34">
@@ -1147,7 +1147,7 @@
         <v>Vaccine3, Serious AEFI</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C34" s="4" t="str">
         <v>LPhRMhbUbRE</v>
@@ -1155,134 +1155,134 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Closed vial, Exposure</v>
+        <v>60+ years, Female, Vaccine2</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>lTacio9Id50</v>
+        <v>ly72sXh6ryW</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>60+ years, Female, Vaccine2</v>
+        <v>60-69 years, Male, Vaccine3</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>ly72sXh6ryW</v>
+        <v>Mb05QIgQcoM</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>60-69 years, Male, Vaccine3</v>
+        <v>70-79 years, Female, Vaccine1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Mb05QIgQcoM</v>
+        <v>Mso8C8jquvO</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Closed vial, Partial use</v>
+        <v>70-79 years, Female, Vaccine3</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>MkryG3woLLJ</v>
+        <v>mUubrvrVIoV</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>70-79 years, Female, Vaccine1</v>
+        <v>&lt;60 years, Male</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Mso8C8jquvO</v>
+        <v>nACYHQS6RTn</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>70-79 years, Female, Vaccine3</v>
+        <v>Closed, Expiry</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>mUubrvrVIoV</v>
+        <v>O5Uj1OF9N9P</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>&lt;60 years, Male</v>
+        <v>70-79 years, Male, Vaccine1</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>nACYHQS6RTn</v>
+        <v>O9Z6wZkNMl6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>70-79 years, Male, Vaccine1</v>
+        <v>60-69 years, Female</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>O9Z6wZkNMl6</v>
+        <v>osXg7mNNzWb</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>60-69 years, Female</v>
+        <v>Opened, Expiry</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>osXg7mNNzWb</v>
+        <v>pX5weIuii9R</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Closed vial, Contamination</v>
+        <v>60+ years, Male, Vaccine1</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>QVo1zpPICJN</v>
+        <v>S600AfMQbKQ</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Open vial, Partial use</v>
+        <v>Opened, Partial use</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>RPzlBMTlOxz</v>
+        <v>Sv9bGipeuZU</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>60+ years, Male, Vaccine1</v>
+        <v>Closed, Partial use</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>S600AfMQbKQ</v>
+        <v>TuW4TAQPDcC</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>&lt;60 years, Male, Vaccine2</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C47" s="5" t="str">
         <v>uIIFBU3NJCl</v>
@@ -1298,145 +1298,145 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Closed vial, Other reason</v>
+        <v>&lt;60 years, Female, Vaccine3</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>utXnwFzJgiA</v>
+        <v>VDX4411bEwZ</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>&lt;60 years, Female, Vaccine3</v>
+        <v>Closed, Color change</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>VDX4411bEwZ</v>
+        <v>VG40LqWAG4i</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>&lt;60 years, Male, Vaccine3</v>
+        <v>Closed, Other reason</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Vva8jEdMGyx</v>
+        <v>vjcCyKm2JGD</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Vaccine2</v>
+        <v>&lt;60 years, Male, Vaccine3</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>WCkKHHtraD5</v>
+        <v>Vva8jEdMGyx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Vaccine1</v>
+        <v>Vaccine2</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>WID1zw7icTl</v>
+        <v>WCkKHHtraD5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>Vaccine2, Serious AEFI</v>
+        <v>Vaccine1</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>wkgjnBtq9yC</v>
+        <v>WID1zw7icTl</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>60+ years, Male</v>
+        <v>Vaccine2, Serious AEFI</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>wY6kS8VVWH9</v>
+        <v>wkgjnBtq9yC</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>Closed vial, Expiry</v>
+        <v>60+ years, Male</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>x0WvdmAkQqF</v>
+        <v>wY6kS8VVWH9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Open vial, Expiry</v>
+        <v>80+ years, Male, Vaccine1</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>x1IX3hw1Xwl</v>
+        <v>X7HDZBCO9Ck</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>80+ years, Male, Vaccine1</v>
+        <v>70-79 years, Male</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>X7HDZBCO9Ck</v>
+        <v>Xhq4cIsIPvF</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>70-79 years, Male</v>
+        <v>60+ years, Female, Vaccine1</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Xhq4cIsIPvF</v>
+        <v>Xrbw9OSFk0m</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>60+ years, Female, Vaccine1</v>
+        <v>70-79 years, Female</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Xrbw9OSFk0m</v>
+        <v>y9MlQ9kbywF</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>70-79 years, Female</v>
+        <v>Closed, Exposure</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>y9MlQ9kbywF</v>
+        <v>YPZIuJSQGjz</v>
       </c>
     </row>
     <row r="61">
@@ -1444,7 +1444,7 @@
         <v>60-69 years, Male</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C61" s="5" t="str">
         <v>YX9CbyGsJwx</v>
@@ -1455,7 +1455,7 @@
         <v>80+ years, Female, Vaccine2</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C62" s="4" t="str">
         <v>Yy6aoJ9PTVS</v>
@@ -1466,7 +1466,7 @@
         <v>&lt;60 years, Female, Vaccine2</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C63" s="5" t="str">
         <v>ZpvqjZ9iDSn</v>
@@ -1504,7 +1504,7 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>dX05HKf9jgk</v>
@@ -1515,7 +1515,7 @@
         <v>Vial condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>flirf9mAeha</v>
@@ -1526,7 +1526,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>hEcLht1oMFl</v>
@@ -1537,7 +1537,7 @@
         <v>AEFI Severity</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>lKWQD9CDlOA</v>
@@ -1548,7 +1548,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>mytJKrvlNuF</v>
@@ -1593,7 +1593,7 @@
         <v>Partial use</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>A3jbi9q2pvX</v>
@@ -1607,7 +1607,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>aHtHUdheUX7</v>
@@ -1621,7 +1621,7 @@
         <v>Open vial</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>B1GRrudW4kx</v>
@@ -1635,7 +1635,7 @@
         <v>Other reason</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>CcM1wEkrHwA</v>
@@ -1649,7 +1649,7 @@
         <v>Color change (VVM)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>diTeRoy0yzo</v>
@@ -1663,7 +1663,7 @@
         <v>Vaccine2</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>FNFBfAafW1b</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>&lt;60 years</v>
+        <v>0-59 years</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>&lt;60 y</v>
+        <v>0-59 y</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>fqborXHhXZG</v>
@@ -1691,7 +1691,7 @@
         <v>60+ y</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>hEct0AAbPAw</v>
@@ -1705,7 +1705,7 @@
         <v>Vaccine3</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>IIUfyc2Pe6x</v>
@@ -1719,7 +1719,7 @@
         <v>Contamination</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>KS058ZLL570</v>
@@ -1733,7 +1733,7 @@
         <v>Vaccine1</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>TJHsOAXOi3f</v>
@@ -1747,7 +1747,7 @@
         <v>Non-Serious AEFI</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>uOiOUtqUZdY</v>
@@ -1761,7 +1761,7 @@
         <v>Closed vial</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>uWJm7E7Jtgk</v>
@@ -1775,7 +1775,7 @@
         <v>Expiry</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>ZyZJL43yTIM</v>
@@ -1849,7 +1849,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>&lt;60 years</v>
+        <v>0-59 years</v>
       </c>
     </row>
     <row r="8">
@@ -1976,7 +1976,7 @@
         <v>Opening balance + Received syringes with needle 1ml</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>Bqgw5ZswQ0i</v>
@@ -1999,7 +1999,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>DhgwNZdmK3z</v>
@@ -2022,7 +2022,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>FcHGTSb6QSX</v>
@@ -2045,7 +2045,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>FV15XHjS9KW</v>
@@ -2068,7 +2068,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>fXfMrOF8GRi</v>
@@ -2091,7 +2091,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>gfzqS2pyBsu</v>
@@ -2114,7 +2114,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>GOXlyiQr5UG</v>
@@ -2137,7 +2137,7 @@
         <v>Target population</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>hbbLJ70OB0F</v>
@@ -2160,7 +2160,7 @@
         <v>Opening balance + Received cold boxes</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>JvKCXKBaFVh</v>
@@ -2183,7 +2183,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>Kdjeh5QThsn</v>
@@ -2206,7 +2206,7 @@
         <v>Opening balance + Received syringes</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>kEXHGR4jkWR</v>
@@ -2229,7 +2229,7 @@
         <v>Discarded stock</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>krggZifXtr2</v>
@@ -2252,7 +2252,7 @@
         <v>Staff expected at centre today</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>oznilQuKpqC</v>
@@ -2275,7 +2275,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>pbKnj7OLeUd</v>
@@ -2298,7 +2298,7 @@
         <v>People given last dose</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>QqtsnF38TX6</v>
@@ -2321,7 +2321,7 @@
         <v>Opening balance + Received cold boxes</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>sCmEVokVIMZ</v>
@@ -2344,7 +2344,7 @@
         <v>People given 1st dose</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>Shlzt0QvkUn</v>
@@ -2367,7 +2367,7 @@
         <v>People given 2+ dose</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>SSwuygmdxTx</v>
@@ -2390,7 +2390,7 @@
         <v>Opening balance + Received vaccination cards</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>t8vHdmah0wG</v>
@@ -2413,7 +2413,7 @@
         <v>Opening balance + Received  safety boxes</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>uOHvnGyZZua</v>
@@ -2436,7 +2436,7 @@
         <v>Opening balance + Received</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>wxhwtVbJt7n</v>
@@ -2474,7 +2474,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>OBpdFqWkQMK</v>
@@ -2710,7 +2710,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2722,13 +2722,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="90.7109375" customWidth="1"/>
@@ -2773,22 +2773,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A8UE5oyhOMl</v>
+        <v>a8exJvs1DYc</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - Received dilution syringes</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_RECEIVED_DILUTION_SYRINGES</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>1</v>
@@ -2797,30 +2797,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AfDDi4x9jOt</v>
+        <v>A8UE5oyhOMl</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2837,22 +2837,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>ANmlPnVtTTa</v>
+        <v>AfDDi4x9jOt</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Stockout days - Vaccine3 vials</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Stockout days - Vaccine3 vials</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
+        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>Stockout days - Vaccine3</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2869,31 +2869,31 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AvwcVy7Yfv4</v>
+        <v>ANmlPnVtTTa</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
+        <v>COVAX - Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose (%)</v>
+        <v>Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given 1st dose</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>Target frontline healthcare workers given 1st dose</v>
+        <v>Stockout days - Vaccine3</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2901,31 +2901,31 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXQfVQKvZJu</v>
+        <v>AvwcVy7Yfv4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions given last dose</v>
+        <v>COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>People with existing conditions given last dose</v>
+        <v>Frontline healthcare workers given 1st dose (%)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_COND_LAST_DOSE</v>
+        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>People with underlying medical conditions given last dose</v>
+        <v>Proportion of frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Target people with underlying medical conditions given last dose</v>
+        <v>Target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>1</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2951,13 +2951,13 @@
         <v>Staff available</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v xml:space="preserve">Expected staff </v>
+        <v>Expected staff</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2968,19 +2968,19 @@
         <v>B7vM2EWHmrP</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_SAFETY_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Stock at hand safety boxes</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>1</v>
@@ -2989,7 +2989,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3000,16 +3000,16 @@
         <v>BbcV04tNF2n</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX - Opening balance - Vaccine2 doses</v>
+        <v>COVAX - Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F9" s="5" t="str">
         <v>Opening balance - Vaccine2 doses</v>
@@ -3021,7 +3021,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3032,16 +3032,16 @@
         <v>BgtZgNWFVfb</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_2PLUS_DOSE</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>Frontline healthcare workers given 2+ dose</v>
@@ -3053,7 +3053,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3085,7 +3085,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3105,10 +3105,10 @@
         <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>Given 1st dose</v>
@@ -3117,7 +3117,7 @@
         <v>Percentage</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3128,19 +3128,19 @@
         <v>ByzkeCHudEH</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_CENTRE_TODAY</v>
+        <v>CVX_STAFF_EXPECTED_AT_POC</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Staff expected at PoC during the reporting period</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3169,10 +3169,10 @@
         <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>Given 1st dose</v>
@@ -3181,7 +3181,7 @@
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3189,63 +3189,63 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>cdLF5DVO45T</v>
+        <v>cd7NXT5z1pV</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Closed vials wastage (%)</v>
+        <v>COVAX - Received diluent</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Closed vials wastage (%)</v>
+        <v>Received diluent</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
+        <v>CVX_RECEIVED_DILUENT</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>(Discarded closed vial doses/Doses discarded)*100</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Closed vial doses discarded</v>
+        <v>Received diluent</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J15" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cEUzKKCa7fv</v>
+        <v>cdLF5DVO45T</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Vaccine stock reporting rates</v>
+        <v>COVAX - Closed vials wastage (%)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Vaccine stock reporting rates (%)</v>
+        <v>Closed vials wastage (%)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
+        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v xml:space="preserve">Proportion of all vaccination centres that submitted their report </v>
+        <v>(Discarded closed vial doses/Doses discarded)*100</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>Closed vial doses discarded</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>Expected reports</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3253,31 +3253,31 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>cSnIflt4J3h</v>
+        <v>cEUzKKCa7fv</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Redistributed - Vaccine1 doses</v>
+        <v>COVAX - Vaccine stock reporting rates</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Vaccine stock reporting rates (%)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3285,22 +3285,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>CydbboFk0yH</v>
+        <v>cSnIflt4J3h</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Stock on hand - Vaccine3 doses</v>
+        <v>COVAX - Redistributed - Vaccine1 doses</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Stock on hand - Vaccine3 doses</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE3_DOSES</v>
+        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Stock on hand - Vaccine3 doses</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>1</v>
@@ -3309,7 +3309,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3317,22 +3317,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>eA3THL80DDH</v>
+        <v>cVo16hm11Kj</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Stockout days - Vaccine1 vials</v>
+        <v>COVAX - Redistributed dilution syringes</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Stockout days - Vaccine1 vials</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
+        <v>CVX_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Stockout days - Vaccine1</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -3341,30 +3341,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J19" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>EMDTyzi8eMD</v>
+        <v>CydbboFk0yH</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Stock at hand - Vaccine 3 doses</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J20" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3381,22 +3381,22 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>f1W0R9vbMEn</v>
+        <v>djMXxir9aEw</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - Stock at hand dilution syringes</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVX_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -3405,30 +3405,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J21" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>FE4mbnWq0rv</v>
+        <v>eA3THL80DDH</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine2 doses</v>
+        <v>COVAX - Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Stockout days - Vaccine1</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3445,31 +3445,31 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>ffjCEkN7xC2</v>
+        <v>EMDTyzi8eMD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX - Stock discrepancy rate (%)</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Stock discrepancy rate</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
+        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>(Closing balance-Stock on hand)/Stock on hand</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Closing balance-Stock on hand</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>Stock on hand</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3477,22 +3477,22 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>fQAVcB4dAQp</v>
+        <v>EPpNtahWX9y</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAX - Redistributed vials</v>
+        <v>COVAX - Discarded open vials - Vaccine 3</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Redistributed vials</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE3</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>Redistributed vials</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>1</v>
@@ -3501,30 +3501,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J24" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>fySBzigjUbH</v>
+        <v>f1W0R9vbMEn</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Closing balance vaccination cards</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Closing balance vaccination cards</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_CARDS</v>
+        <v>CVX_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J25" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3541,22 +3541,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>g2voTi7ZCxe</v>
+        <v>FE4mbnWq0rv</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine1 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count of the previous day</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded - Vaccine2 doses</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3573,31 +3573,31 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>G9jRzY6zmJg</v>
+        <v>ffjCEkN7xC2</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Stock discrepancy rate (%)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Stock discrepancy rate (%)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_CARDS</v>
+        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>(Closing balance-Stock on hand)/Stock at hand</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Closing balance-Stock at hand</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>1</v>
+        <v>Stock at hand</v>
       </c>
       <c r="H27" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3605,22 +3605,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>gZEoyKpx4hE</v>
+        <v>FMLTWPO5qFU</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - Distributed diluent</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Distriuted diluent</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
+        <v>CVX_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>1</v>
@@ -3629,39 +3629,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>h3NchPC73cV</v>
+        <v>fQAVcB4dAQp</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates</v>
+        <v>COVAX - Redistributed vials</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Vaccination reporting rates (%)</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>CVX_VAC_REPORTING_RATE_%</v>
+        <v>CVX_REDISTRIBUTED_VIALS</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v xml:space="preserve">Proportion of all vaccination centres that submitted their report </v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>Expected reports</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3669,22 +3669,22 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>H6nsnH2w9A9</v>
+        <v>fSchc931av0</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Opening balance - Vaccine3 doses</v>
+        <v>COVAX - Discarded open vials - Vaccine 1</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE1</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>1</v>
@@ -3693,30 +3693,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>hJKdezT5GcK</v>
+        <v>FyC7Cf74Cao</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine1 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE2</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>1</v>
@@ -3725,30 +3725,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>i0dG1vChnP6</v>
+        <v>fySBzigjUbH</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine1 doses</v>
+        <v>COVAX - Closing balance vaccination cards</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Closing balance vaccination cards</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_CARDS</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>1</v>
@@ -3757,7 +3757,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3765,22 +3765,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>iC5xj6Dqa0P</v>
+        <v>g2voTi7ZCxe</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>CVX_TARGET_FRONTLINE_HCW</v>
+        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Opening balance - Vaccine1 doses</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3797,22 +3797,22 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>ILLy5jdUwwE</v>
+        <v>G9jRzY6zmJg</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3829,31 +3829,31 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Iv3tfc8gso7</v>
+        <v>gZEoyKpx4hE</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates on time</v>
+        <v>COVAX - Essential workers given 2nd dose</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Vaccination reporting rates on time (%)</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3861,31 +3861,31 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>J4UW8FgK4vq</v>
+        <v>h3NchPC73cV</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>COVAX - Received vaccination cards</v>
+        <v>COVAX - Vaccination reporting rates</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Received vaccination cards</v>
+        <v>Vaccination reporting rates (%)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>CVX_RECEIVED_CARD</v>
+        <v>CVX_VAC_REPORTING_RATE_%</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Received vaccination cards</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3893,31 +3893,31 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>j550fnnj9QU</v>
+        <v>H6nsnH2w9A9</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COVAX - Vaccine2 uptake (%)</v>
+        <v>COVAX - Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Vaccine2 uptake (%)</v>
+        <v>Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>CVX_VACCINE2_UPTAKE_%</v>
+        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Proportion of people given doses of vaccine2</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Vaccine2 doses given</v>
+        <v>Opening balance - Vaccine3 doses</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>jayuvPfIQBz</v>
+        <v>hJKdezT5GcK</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>CVX_RECEIVED_COLD_BOXES</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>1</v>
@@ -3949,7 +3949,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>jFlfqS1M9Hj</v>
+        <v>hlmH910DBPC</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Discarded vaccination dilution syringes</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_CENTRE_TODAY</v>
+        <v>CVX_DISCARDED_DILUTION_SYRINGES</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>1</v>
@@ -3981,39 +3981,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J39" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>k9kIyVQEc0o</v>
+        <v>i0dG1vChnP6</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COVAX - Wastage rate (%)</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Wastage rate (%)</v>
+        <v>Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>CVX_ WASTAGE_RATE_%</v>
+        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>(Discarded/Used)*100</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>Discarded - Vaccine1 doses</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4021,22 +4021,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Kkbt3LgbCbD</v>
+        <v>iC5xj6Dqa0P</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine3</v>
+        <v>COVAX - Target frontline healthcare workers</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
+        <v>CVX_TARGET_FRONTLINE_HCW</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine3</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4053,22 +4053,22 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>KLFHy7LdaEp</v>
+        <v>ILLy5jdUwwE</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>COVAX - Received - Vaccine2 doses</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Stockout days safety boxes</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>ktUQ6Yk8Ztv</v>
+        <v>iPolbKiHAaq</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>COVAX - Target people given last dose</v>
+        <v>COVAX - Discarded open vials - Vaccine 2</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Target people given last dose</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>CVX_PEOPLE_LAST_DOSE</v>
+        <v>CVX_DISCARDED__CLOSED_VIALS_VACCINE2</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Target people vaccinated last dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Target people given last dose</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>1</v>
@@ -4109,39 +4109,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J43" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>kx79vq5XdQd</v>
+        <v>Iv3tfc8gso7</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>COVAX - Closing balance syringes with needle 1ml</v>
+        <v>COVAX - Vaccination reporting rates on time</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Closing balance syringes with needle 1ml</v>
+        <v>Vaccination reporting rates on time (%)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4149,22 +4149,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>lGv5kC9pLPI</v>
+        <v>J4UW8FgK4vq</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Received vaccination cards</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Discarded vials</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>CVX_DISCARDED_VIALS</v>
+        <v>CVX_RECEIVED_CARD</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Discarded vials</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4181,31 +4181,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>LgvcCkQIQ44</v>
+        <v>j550fnnj9QU</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>COVAX - Opened vials wastage (%)</v>
+        <v>COVAX - Vaccine 2 uptake (%)</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Opened vials wastage (%)</v>
+        <v>Vaccine 2 uptake (%)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
+        <v>CVX_VACCINE2_UPTAKE_%</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>(Discarded open vial doses/Doses discarded)*100</v>
+        <v>Proportion of people given doses of vaccine2</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Opened vial doses discarded</v>
+        <v>Vaccine2 doses given</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4213,22 +4213,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>lXV4Lk0aah6</v>
+        <v>jayuvPfIQBz</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>COVAX - Distributed vials</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Received cold box</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VIALS</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Received cold boxes</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4245,22 +4245,22 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>mQYStz4mXT5</v>
+        <v>jFlfqS1M9Hj</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
+        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Staff available at PoC during the reporting period</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="G48" s="4" t="str">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4277,31 +4277,31 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>MRUsCIsRdps</v>
+        <v>k9kIyVQEc0o</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COVAX - Distributed - Vaccine2 doses</v>
+        <v>COVAX - Wastage rate (%)</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Wastage rate (%)</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVX_ WASTAGE_RATE_%</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>(Discarded/Used)*100</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Discarded doses</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>1</v>
+        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="H49" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4309,22 +4309,22 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>N4iXbeP3T5O</v>
+        <v>Kkbt3LgbCbD</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine2 vials</v>
+        <v>COVAX - Doses per vial - Vaccine 3</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Closing balance - Vaccine2 vials</v>
+        <v>Doses per vial - Vaccine 3</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Number of doses in a vial - Vaccine3</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>N4O2KBFP7Ze</v>
+        <v>KLFHy7LdaEp</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Received - Vaccine 2 (doses)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received - Vaccine 2 (doses)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
       </c>
       <c r="E51" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received - Vaccine2 doses</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4373,22 +4373,22 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>n5u7G8DQYNJ</v>
+        <v>kx79vq5XdQd</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity</v>
+        <v>COVAX - Closing balance syringes with needle 1ml</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Closing balance syringes with needle 1ml</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>nO5aJYGv9qb</v>
+        <v>lGv5kC9pLPI</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>COVAX - Received - Vaccine3 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4437,31 +4437,31 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>NtkYtrGGzGV</v>
+        <v>LgvcCkQIQ44</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - Opened vials wastage (%)</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Opened vials wastage (%)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>(Discarded open vial doses/Doses discarded)*100</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Opened vial doses discarded</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H54" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4469,22 +4469,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>o2sAk0ai7X9</v>
+        <v>LlSh5OozlKX</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COVAX - Stock on hand - Vaccine1 doses</v>
+        <v>COVAX - Closing balance diluent</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Stock on hand - Vaccine1 doses</v>
+        <v>Closing balance diluent</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE1_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_DILUENT</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Stock on hand - Vaccine1 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>1</v>
@@ -4493,30 +4493,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J55" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>O9HPe4hooiB</v>
+        <v>lXV4Lk0aah6</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Distributed vials</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Distributed vials</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
+        <v>CVX_DISTRIBUTED_VIALS</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Vials discarded by reasons</v>
+        <v>Distributed vials</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>1</v>
@@ -4525,7 +4525,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4533,22 +4533,22 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>oB4qA3ZKs89</v>
+        <v>M5EPDK0aiWj</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>COVAX - Target people given 1st dose</v>
+        <v>COVAX - Discarded vaccination diluent</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVX_DISCARDED_DILUENT</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="G57" s="5" t="str">
         <v>1</v>
@@ -4557,39 +4557,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J57" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>OkkYt2JpIZ8</v>
+        <v>mQYStz4mXT5</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>COVAX - Vaccine3 uptake (%)</v>
+        <v>COVAX - Target people with existing medical conditions</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Vaccine3 uptake (%)</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>CVX_VACCINE3_UPTAKE_%</v>
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Proportion of people given doses of vaccine3</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Vaccine3 doses given</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4597,22 +4597,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>orUc26gd0BF</v>
+        <v>MRUsCIsRdps</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>COVAX - Closing balance - Vaccine1 vials</v>
+        <v>COVAX - Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
+        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed - Vaccine2 doses</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4629,22 +4629,22 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>OxPqWqw6hL6</v>
+        <v>N4iXbeP3T5O</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G60" s="4" t="str">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4661,22 +4661,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>pqED8vVfjlf</v>
+        <v>N4O2KBFP7Ze</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_LAST_DOSE</v>
+        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -4685,7 +4685,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4693,22 +4693,22 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>q2NHWRFKJIJ</v>
+        <v>n5u7G8DQYNJ</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>COVAX - Redistributed syringes with needle 1ml</v>
+        <v>COVAX - AEFIs by vaccine and severity</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4725,22 +4725,22 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>Q5CvJIeZAeh</v>
+        <v>nO5aJYGv9qb</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Received - Vaccine 3 (doses)</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Received - Vaccine 3 (doses)</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Received - Vaccine3 doses</v>
       </c>
       <c r="G63" s="5" t="str">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4757,22 +4757,22 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>q7a0Mh2fRC1</v>
+        <v>NtkYtrGGzGV</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
+        <v>COVAX - Essential workers given 1st dose</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>People with existing conditions given 1st dose</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>People with existing medical conditions given 1st dose</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Target people with existing medical conditions given 1st dose</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4789,31 +4789,31 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>qgyGe1hrTU8</v>
+        <v>o2sAk0ai7X9</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>COVAX - Proportion of target people with underlying medical conditions given last dose</v>
+        <v>COVAX - Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>People with existing cond given last dose (%)</v>
+        <v>Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Proportion of target people with existing medical conditions given last dose</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Target people with existing conditions given last dose</v>
+        <v>Stock at hand - Vaccine 1 doses</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>Target people with underlying medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4821,31 +4821,31 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>QH43B8PD9V5</v>
+        <v>O9HPe4hooiB</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>COVAX - Proportion of target essential workers given 1st dose</v>
+        <v>COVAX - Doses discarded by reasons</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Target essential workers who received 1st dose (%)</v>
+        <v>Doses discarded by reasons</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Proportion of essential workers given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Target essential workers who received 1st dose</v>
+        <v>Vials discarded by reasons</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4853,31 +4853,31 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>qjnUyy7KWYf</v>
+        <v>oB4qA3ZKs89</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>COVAX - Proportion of target essential workers given last dose</v>
+        <v>COVAX - Target people given 1st dose</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Target essential workers given last dose (%)</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Proportion of essential workers given last dose</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v xml:space="preserve">Target essential workers given last dose </v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4885,31 +4885,31 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>QkFx0Jr0EST</v>
+        <v>OkkYt2JpIZ8</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Vaccine 3 uptake (%)</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Vaccine 3 uptake (%)</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVX_VACCINE3_UPTAKE_%</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Proportion of people given doses of vaccine3</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Vaccine3 doses given</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4917,22 +4917,22 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>qM3QXxyUS64</v>
+        <v>orUc26gd0BF</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G69" s="5" t="str">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4949,22 +4949,22 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>QZritWA9epc</v>
+        <v>OxPqWqw6hL6</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>COVAX - Redistributed - Vaccine2 doses</v>
+        <v>COVAX - Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G70" s="4" t="str">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4981,22 +4981,22 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>RkC5nQeFp1f</v>
+        <v>pqED8vVfjlf</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine2</v>
+        <v>COVAX - Essential workers given booster dose</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="G71" s="5" t="str">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5013,31 +5013,31 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>rms4sR9JeYV</v>
+        <v>q2NHWRFKJIJ</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
+        <v>COVAX - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>People with existing conditions given 1st dose (%)</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Proportion of target people with existing medical conditions given 1st dose</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Target people with existing conditions given 1st dose</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5045,22 +5045,22 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>RneeVTogdGr</v>
+        <v>Q5CvJIeZAeh</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Opening balance equals the physical stock on hand count' of the previous period</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="G73" s="5" t="str">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5077,31 +5077,31 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>SBiW9NeXZeE</v>
+        <v>q7a0Mh2fRC1</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>COVAX - Drop out rates among all people targeted</v>
+        <v>COVAX - Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Drop out rates among all (%)</v>
+        <v>People with existing conditions given 1st dose</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
+        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5109,31 +5109,31 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>sCEtYxBxsIc</v>
+        <v>QH43B8PD9V5</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>COVAX - Drop out rates among people with underlying medical conditions(%)</v>
+        <v>COVAX - Proportion of target essential workers given 1st dose</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Drop out rates - people with underlying cond (%)</v>
+        <v>Target essential workers who received 1st dose (%)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
+        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>(1st dose - last dose)/1st dose</v>
+        <v>Proportion of essential workers given 1st dose</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Given 1st dose - Given last dose</v>
+        <v>Target essential workers who received 1st dose</v>
       </c>
       <c r="G75" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>Target essential workers</v>
       </c>
       <c r="H75" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5141,22 +5141,22 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>sDWeBvf4rrQ</v>
+        <v>QkFx0Jr0EST</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>COVAX - Received - Vaccine1 doses</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
+        <v>CVX_DISCARDED_COLD_BOXES</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Discarded cold boxes</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>1</v>
@@ -5165,7 +5165,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5173,31 +5173,31 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>SvxFYXEwEwh</v>
+        <v>qM3QXxyUS64</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates on time</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>Vaccine stock reporting rates on time (%)</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
+        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Redistributed safety boxes</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H77" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5205,22 +5205,22 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>t4hpTf9Jo4a</v>
+        <v>QZritWA9epc</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>COVAX - Discarded - Vaccine3 doses</v>
+        <v>COVAX - Redistributed - Vaccine2 doses</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
+        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="G78" s="4" t="str">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5237,22 +5237,22 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>tiFvalDGy3M</v>
+        <v>RkC5nQeFp1f</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>COVAX - Redistributed - Vaccine3 doses</v>
+        <v>COVAX - Doses per vial - Vaccine 2</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Doses per vial - Vaccine 2</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Number of doses in a vial - Vaccine2</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="G79" s="5" t="str">
         <v>1</v>
@@ -5261,7 +5261,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5269,31 +5269,31 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>TiylZPMlukw</v>
+        <v>rms4sR9JeYV</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>COVAX - Received vials</v>
+        <v>COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing conditions given 1st dose (%)</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>CVX_RECEIVED_VIALS</v>
+        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>Received vials</v>
+        <v>Target people with existing conditions given 1st dose</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>1</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="H80" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>TJqiY5fLP8C</v>
+        <v>RneeVTogdGr</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>COVAX - Target population</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>CVX_TARGET_POPULATION</v>
+        <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>Target population</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="G81" s="5" t="str">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5333,31 +5333,31 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>u56y5tRtmXY</v>
+        <v>SBiW9NeXZeE</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>COVAX - Proportion of target people given last dose</v>
+        <v>COVAX - Drop out rates among all people targeted</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Target people given last dose (%)</v>
+        <v>Drop out rates among all (%)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>CVX_PEOPLE_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Proportion of target people given last dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Target people given last dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>Target population</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H82" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5365,31 +5365,31 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>U7Xq3jiK8Fy</v>
+        <v>sCEtYxBxsIc</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>COVAX - Proportion of target people given 1st dose</v>
+        <v>COVAX - Drop out rates among people with underlying medical conditions(%)</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Target people given 1st dose (%)</v>
+        <v>Drop out rates - people with underlying cond (%)</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
+        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Proportion of target people given 1st dose</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>Target population</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H83" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5397,22 +5397,22 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>uhZxrsrhZuy</v>
+        <v>sDWeBvf4rrQ</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>COVAX - Closing balance vials</v>
+        <v>COVAX - Received - Vaccine 1 (doses)</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Closing balance vials</v>
+        <v>Received - Vaccine 1 (doses)</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VIALS</v>
+        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received - Vaccine1 doses</v>
       </c>
       <c r="G84" s="4" t="str">
         <v>1</v>
@@ -5421,7 +5421,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5429,22 +5429,22 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>ujhVVQlwTB0</v>
+        <v>sQaCAFVXOgq</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous period</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="G85" s="5" t="str">
         <v>1</v>
@@ -5453,39 +5453,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J85" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>UjzjMQpG41z</v>
+        <v>SvxFYXEwEwh</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Vaccine stock reporting rates on time</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Vaccine stock reporting rates on time (%)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_COLD_BOXES</v>
+        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H86" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5493,22 +5493,22 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>UsMLXbWhhEj</v>
+        <v>t4hpTf9Jo4a</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Discarded - Vaccine3 doses</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5525,22 +5525,22 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>V735nRG647O</v>
+        <v>tiFvalDGy3M</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>COVAX - Discarded syringes with needle 1ml</v>
+        <v>COVAX - Redistributed - Vaccine3 doses</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="G88" s="4" t="str">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5557,22 +5557,22 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>V8XFjC7JHtx</v>
+        <v>TiylZPMlukw</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Received vials</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Received vials</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_RECEIVED_VIALS</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Received vials</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>1</v>
@@ -5581,7 +5581,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>vBBejr9Qm9y</v>
+        <v>TJqiY5fLP8C</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine3 vials</v>
+        <v>COVAX - Target population</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Closing balance - Vaccine3 vials</v>
+        <v>Target population</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
+        <v>CVX_TARGET_POPULATION</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target population</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target population</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5621,22 +5621,22 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>vBJQTfzca4x</v>
+        <v>TS3T65BQ5mQ</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Closing balance dilution syringes</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Closing balance dilution syringes</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
+        <v>CVX_CLOSING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>1</v>
@@ -5645,39 +5645,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J91" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>VFdnTyYvS5c</v>
+        <v>U7Xq3jiK8Fy</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Proportion of target people given 1st dose</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Stock on hand vials</v>
+        <v>Target people given 1st dose (%)</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VIALS</v>
+        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Proportion of target people given 1st dose</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Stock on hand vials</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>1</v>
+        <v>Target population</v>
       </c>
       <c r="H92" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5685,22 +5685,22 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>vn6JSZdN0Gq</v>
+        <v>uhZxrsrhZuy</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Closing balance vials</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Closing balance vials</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
+        <v>CVX_CLOSING_BALANCE_VIALS</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5717,22 +5717,22 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>w42k9kZegoW</v>
+        <v>ujhVVQlwTB0</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="G94" s="4" t="str">
         <v>1</v>
@@ -5741,7 +5741,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5749,22 +5749,22 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>wassnxEhpwM</v>
+        <v>UjzjMQpG41z</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Stock at hand cold boxes</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5781,22 +5781,22 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>wcMsZNh0GO0</v>
+        <v>USByeCb5DTV</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Stockout days diluent</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_DILUENT</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="G96" s="4" t="str">
         <v>1</v>
@@ -5805,30 +5805,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J96" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>WMjFkieChKj</v>
+        <v>UsMLXbWhhEj</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>COVAX - Stockout days - Vaccine2 vials</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Stockout days - Vaccine2 vials</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v xml:space="preserve"> Days the centre was stocked out of the item</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>Stockout days - Vaccine2</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>1</v>
@@ -5837,7 +5837,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5845,22 +5845,22 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>wpfKN5vD3QG</v>
+        <v>V735nRG647O</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>COVAX - Used vials</v>
+        <v>COVAX - Discarded syringes with needle 1ml</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Used vials</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>CVX_USED_VIALS</v>
+        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="G98" s="4" t="str">
         <v>1</v>
@@ -5869,7 +5869,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5877,22 +5877,22 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>X2XYc8WNUY3</v>
+        <v>V8XFjC7JHtx</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>COVAX - Distributed - Vaccine1 doses</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVX_DISTRIBUTED_CARDS</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J99" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5909,22 +5909,22 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>XxmA3VOxZdM</v>
+        <v>vBBejr9Qm9y</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>COVAX - Distributed - Vaccine3 doses</v>
+        <v>COVAX - Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
       </c>
       <c r="E100" s="4" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G100" s="4" t="str">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5941,31 +5941,31 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>y7uIwU6x8VS</v>
+        <v>vBJQTfzca4x</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>COVAX - Vaccine1 uptake (%)</v>
+        <v>COVAX - Frontline healthcare workers given booster dose</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Vaccine 1 uptake (%)</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>CVX_VACCINE1_UPTAKE_%</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>Proportion of people given doses of vaccine1</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>Vaccine1 doses given</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="G101" s="5" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H101" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5973,22 +5973,22 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>yB3Vf9Quskj</v>
+        <v>VFdnTyYvS5c</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>COVAX - Discarded vaccination cards</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>CVX_DISCARDED_CARDS</v>
+        <v>CVX_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="E102" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F102" s="4" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="G102" s="4" t="str">
         <v>1</v>
@@ -5997,7 +5997,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6005,31 +6005,31 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>Yb759ffWrrD</v>
+        <v>vn6JSZdN0Gq</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>COVAX - Vaccine usage rate (%)</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Vaccine usage rate (%)</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="E103" s="5" t="str">
-        <v>(Distributed/Used)*100</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>Used vials</v>
+        <v>1</v>
       </c>
       <c r="H103" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6037,22 +6037,22 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>YBLUIQSCFPJ</v>
+        <v>w42k9kZegoW</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine3 doses</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Closing balance - Vaccine3 doses</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E104" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed safety boxes</v>
       </c>
       <c r="G104" s="4" t="str">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6069,31 +6069,31 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>YClBh4hwpk7</v>
+        <v>wassnxEhpwM</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>COVAX - Proportion of target frontline healthcare workers given last dose</v>
+        <v>COVAX - Target essential workers</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Frontline healthcare workers given last dose (%)</v>
+        <v>Target essential workers</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_LAST_DOSE_%</v>
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given last dose</v>
+        <v>Target essential workers</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>Target frontline healthcare workers  given last dose</v>
+        <v>Target essential workers</v>
       </c>
       <c r="G105" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H105" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6101,22 +6101,22 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>yJ9izFBk1bB</v>
+        <v>wcMsZNh0GO0</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>COVAX - Closing balance safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Closing balance safety boxes</v>
+        <v>Received safety box</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Received safety boxes</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>1</v>
@@ -6125,7 +6125,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6133,22 +6133,22 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>ymno3YCIqbh</v>
+        <v>WMjFkieChKj</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Stockout days - Vaccine 2 (vials)</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
       </c>
       <c r="E107" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Stockout days - Vaccine2</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>1</v>
@@ -6157,7 +6157,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6165,22 +6165,22 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>yuEFomZq3Fh</v>
+        <v>wpfKN5vD3QG</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>COVAX - Closing balance cold boxes</v>
+        <v>COVAX - Used vials</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>Closing balance cold boxes</v>
+        <v>Used vials</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+        <v>CVX_USED_VIALS</v>
       </c>
       <c r="E108" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="G108" s="4" t="str">
         <v>1</v>
@@ -6189,7 +6189,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J108" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6197,22 +6197,22 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="str">
-        <v>z0zjaGkserE</v>
+        <v>X2XYc8WNUY3</v>
       </c>
       <c r="B109" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="C109" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Distributed - Vaccine 1 (doses)</v>
       </c>
       <c r="D109" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E109" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F109" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Distributed - Vaccine1 doses</v>
       </c>
       <c r="G109" s="5" t="str">
         <v>1</v>
@@ -6221,7 +6221,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J109" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6229,22 +6229,22 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>zcN15JQUWc7</v>
+        <v>x4tQ5wV60mg</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>COVAX - Stock on hand - Vaccine2 doses</v>
+        <v>COVAX - Redistributed diluent</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Stock on hand - Vaccine2 doses</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_VACCINE2_DOSES</v>
+        <v>CVX_REDISTRIBUTED_DILUENT</v>
       </c>
       <c r="E110" s="4" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>Stock on hand - Vaccine2 doses</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="G110" s="4" t="str">
         <v>1</v>
@@ -6253,30 +6253,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J110" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="str">
-        <v>zdTKcWr73Sk</v>
+        <v>XAu9nDyYWiQ</v>
       </c>
       <c r="B111" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand diluent</v>
       </c>
       <c r="C111" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Stock at hand diluent</v>
       </c>
       <c r="D111" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_STOCK_AT_HAND_DILUENT</v>
       </c>
       <c r="E111" s="5" t="str">
-        <v xml:space="preserve">Stock on-hand at the center after a physical stock count </v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F111" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Stock at hand diluent</v>
       </c>
       <c r="G111" s="5" t="str">
         <v>1</v>
@@ -6285,30 +6285,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J111" s="5" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>ZEXvmTSnv8c</v>
+        <v>XP9ag4eDNlu</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>COVAX - Closing balance - Vaccine2 doses</v>
+        <v>COVAX - Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Closing balance - Vaccine2 doses</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE3</v>
       </c>
       <c r="E112" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded closed vials - Vaccine 3</v>
       </c>
       <c r="G112" s="4" t="str">
         <v>1</v>
@@ -6317,30 +6317,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J112" s="4" t="str">
-        <v>SKgp2iI0dJp</v>
+        <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="str">
-        <v>zqTS3RiSL3o</v>
+        <v>XxmA3VOxZdM</v>
       </c>
       <c r="B113" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine1</v>
+        <v>COVAX - Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="C113" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Distributed - Vaccine 3 (doses)</v>
       </c>
       <c r="D113" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E113" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine1</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Distributed - Vaccine3 doses</v>
       </c>
       <c r="G113" s="5" t="str">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="J113" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -6357,33 +6357,449 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
+        <v>y7uIwU6x8VS</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>COVAX - Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>CVX_VACCINE1_UPTAKE_%</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Proportion of people given doses of vaccine1</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>Vaccine1 doses given</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>Total doses of all vaccines given</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>yB3Vf9Quskj</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>COVAX - Discarded vaccination cards</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>CVX_DISCARDED_CARDS</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>Yb759ffWrrD</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>COVAX - Vaccine usage rate (%)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>Vaccine usage rate (%)</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v>(Distributed/Used)*100</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Distributed vials</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>YBLUIQSCFPJ</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>COVAX - Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v>Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+      </c>
+      <c r="E117" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>yJ9izFBk1bB</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>COVAX - Closing balance safety boxes</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Closing balance safety boxes</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>ymno3YCIqbh</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>COVAX - Redistributed vaccination cards</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>CVX_REDISTRIBUTED_CARDS</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="G119" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>yuEFomZq3Fh</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>COVAX - Closing balance cold boxes</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Closing balance cold boxes</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>z0zjaGkserE</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>COVAX - Discarded safety box</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <v>Discarded safety box</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <v>Discarded safety boxes</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>z5Dp2kLtxAt</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>COVAX - Distributed dilution syringes</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <v>CVX_DISTRIBUTED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <v>Distributed to people receiving the items</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>zcN15JQUWc7</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>COVAX - Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 doses</v>
+      </c>
+      <c r="G123" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>zdTKcWr73Sk</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>ZEXvmTSnv8c</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>COVAX - Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <v>Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+      </c>
+      <c r="E125" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G125" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>zqTS3RiSL3o</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>COVAX - Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <v>Number of doses in a vial - Vaccine1</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <v>Doses in a vial - Vaccine1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
         <v>zTMJ8UYjlCU</v>
       </c>
-      <c r="B114" s="4" t="str">
+      <c r="B127" s="5" t="str">
         <v>COVAX - Opening balance vials</v>
       </c>
-      <c r="C114" s="4" t="str">
+      <c r="C127" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D127" s="5" t="str">
         <v>CVX_OPENING_BALANCE_VIALS</v>
       </c>
-      <c r="E114" s="4" t="str">
-        <v>Opening balance equals the physical 'stock on hand count' of the previous day</v>
-      </c>
-      <c r="F114" s="4" t="str">
+      <c r="E127" s="5" t="str">
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+      </c>
+      <c r="F127" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="G127" s="5" t="str">
         <v>1</v>
       </c>
-      <c r="H114" s="4" t="str">
+      <c r="H127" s="5" t="str">
         <v>Numerator only (number)</v>
       </c>
-      <c r="I114" s="4" t="str">
-        <v>2021-01-20</v>
-      </c>
-      <c r="J114" s="4" t="str">
+      <c r="I127" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="J127" s="5" t="str">
         <v>SKgp2iI0dJp</v>
       </c>
     </row>
@@ -6433,7 +6849,7 @@
         <v>Yes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>JYPhXEzBU2r</v>
@@ -6450,7 +6866,7 @@
         <v>Yes</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-02</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Le8SvNemLGm</v>
@@ -6467,7 +6883,7 @@
         <v>Yes</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>QRyardfjc76</v>
@@ -6512,7 +6928,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>hmSnCXmLYwt</v>
@@ -6526,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>kHy61PbChXr</v>
@@ -6564,7 +6980,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -6937,7 +7353,7 @@
         <v>Chart</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Number of people given 1st and last dose - this and last 6 months</v>
+        <v>COVAX - Number of people given 1st - this and last 6 months</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>eLK1hVjcRMJ</v>
@@ -6980,7 +7396,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -7008,7 +7424,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>CwgW21jWHz1</v>
@@ -7022,7 +7438,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>iBwXpDzZJ4M</v>
@@ -7036,7 +7452,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>IC3e1YTilA3</v>
@@ -7050,7 +7466,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>L2geQCvt3m9</v>
@@ -7064,7 +7480,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>laDW4fMp78v</v>
@@ -7078,7 +7494,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>MeqsIPI7jsf</v>
@@ -7086,13 +7502,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Number of people given 1st and last dose - this and last 6 months</v>
+        <v>COVAX - Number of people given 1st - this and last 6 months</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>NBIo8UnkJsU</v>
@@ -7106,7 +7522,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>oP1h3CJEzP2</v>
@@ -7120,7 +7536,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>sGJvgqCpGHn</v>
@@ -7134,7 +7550,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>T60YVx3ISwD</v>
@@ -7148,7 +7564,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>UEnas3PpETN</v>
@@ -7162,7 +7578,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>vKavKhPWSRc</v>
@@ -7207,7 +7623,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-01</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>q24wzRQtygl</v>
@@ -7221,7 +7637,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>UAxSsG1vtda</v>
@@ -7266,7 +7682,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>IAmP71D6zQV</v>
@@ -7280,7 +7696,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Sg5FrsMduxN</v>
@@ -7522,7 +7938,7 @@
         <v>COVAX admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>e2QMDWpq88P</v>
@@ -7533,7 +7949,7 @@
         <v>COVAX capture</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>I9x6Bd4MwXc</v>
@@ -7544,7 +7960,7 @@
         <v>COVAX access</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
@@ -7627,7 +8043,7 @@
         <v>Doses administered by vaccine, sex and age</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>feQJxQGDpdt</v>
@@ -7641,7 +8057,7 @@
         <v>Doses administered by priority groups</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>TUqe8zCkU6V</v>
@@ -7655,7 +8071,7 @@
         <v>Doses discarded/Wasted by Reasons</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>foPKPuLnZOx</v>
@@ -7669,7 +8085,7 @@
         <v>AEFI by vaccine and severity</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>x2ajojpQQcw</v>
@@ -7683,7 +8099,7 @@
         <v xml:space="preserve">Staff workload </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>vOnpw5UL45a</v>
@@ -7697,7 +8113,7 @@
         <v>Doses per vaccine vial</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>iCOpPb0vQZV</v>
@@ -7711,7 +8127,7 @@
         <v>Vaccine stock status and usage - vials</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>kIScH2ovI2E</v>
@@ -7725,7 +8141,7 @@
         <v>Vaccine stock status and usage - doses</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>UMczq8tbksI</v>
@@ -7736,10 +8152,10 @@
         <v>COVAX - Vaccine stock (Daily)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-02</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Zutn3uE4YnV</v>
@@ -7753,7 +8169,7 @@
         <v>Total target population</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>G0kKjl2enx4</v>
@@ -7767,7 +8183,7 @@
         <v>Targeted priority groups</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-31</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>xHWpKcRkeZU</v>
@@ -7779,15 +8195,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7819,7 +8235,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - 1st dose given</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>kif9K3XRSBh</v>
@@ -7836,7 +8252,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>gOf1dLB3r8G</v>
@@ -7853,7 +8269,7 @@
         <v>feQJxQGDpdt</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>fJzBX7mW5A9</v>
@@ -7870,7 +8286,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>Ly6PaH1qIV3</v>
@@ -7887,7 +8303,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>FCtGm0HJryo</v>
@@ -7904,7 +8320,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - 1st dose given to essential workers</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>xtorWGRMKCn</v>
@@ -7921,7 +8337,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to essential workers</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>Z8SPWzgXYG5</v>
@@ -7938,7 +8354,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>BaqWaD6pnbY</v>
@@ -7955,7 +8371,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>leiFl8fMdd3</v>
@@ -7972,7 +8388,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>KhFJj4Qz57c</v>
@@ -7989,7 +8405,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>u70rr83wIzM</v>
@@ -8006,7 +8422,7 @@
         <v>TUqe8zCkU6V</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>HYYuIK1V5n8</v>
@@ -8023,7 +8439,7 @@
         <v>foPKPuLnZOx</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>aGlvT5OwKRZ</v>
@@ -8057,7 +8473,7 @@
         <v>vOnpw5UL45a</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>AxmVroGCQZO</v>
@@ -8074,7 +8490,7 @@
         <v>vOnpw5UL45a</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>FHvsTsdaer9</v>
@@ -8082,7 +8498,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8099,7 +8515,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8116,7 +8532,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8133,7 +8549,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8150,7 +8566,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8159,7 +8575,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>jpHKXTmXBog</v>
@@ -8167,7 +8583,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8176,7 +8592,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Nluny8KPumM</v>
@@ -8184,7 +8600,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8193,7 +8609,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Stockout days vaccine 1</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>VISxgxU3QF1</v>
@@ -8201,7 +8617,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B25" s="5" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8210,7 +8626,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>suWcEhb54Mz</v>
@@ -8218,7 +8634,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B26" s="4" t="str">
         <v>Vaccine stock status and usage - vials</v>
@@ -8227,7 +8643,7 @@
         <v>kIScH2ovI2E</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>sNAklHVNhYj</v>
@@ -8235,545 +8651,800 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Vaccine stock status and usage - vials</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Zutn3uE4YnV</v>
+        <v>kIScH2ovI2E</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded (open vials)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>gHjdt8paeZt</v>
+        <v>oozfHBgiPvP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>y1TIZ7EacZy</v>
+        <v>gHjdt8paeZt</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C29" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>e1YlvfQPdTe</v>
+        <v>y1TIZ7EacZy</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C30" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>MhtJeFU1s3g</v>
+        <v>e1YlvfQPdTe</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C31" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>sM3XJvqqU5k</v>
+        <v>MhtJeFU1s3g</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C32" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>K1ykBWJNf5C</v>
+        <v>sM3XJvqqU5k</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C33" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Sq1bNvKm7eE</v>
+        <v>K1ykBWJNf5C</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C34" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COVAX - Discarded vaccination cards</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>c1NTgV45W8M</v>
+        <v>Sq1bNvKm7eE</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C35" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Discarded vaccination cards</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>vThouKg9t52</v>
+        <v>c1NTgV45W8M</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C36" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Distributed vaccination cards</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>UE9gtRQP6RN</v>
+        <v>vThouKg9t52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C37" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>COVAX - Received vaccination cards</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>BeHrxrKVlAB</v>
+        <v>UE9gtRQP6RN</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C38" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Received vaccination cards</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>p9sHAm0M0WF</v>
+        <v>BeHrxrKVlAB</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C39" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>KWInDqcM0sc</v>
+        <v>p9sHAm0M0WF</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C40" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>mQd64lsZ2Gj</v>
+        <v>KWInDqcM0sc</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C41" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COVAX - Discarded syringes with needle 1ml</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>fkvWMbUYYvR</v>
+        <v>mQd64lsZ2Gj</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C42" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Discarded syringes with needle 1ml</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>QFfvrOOhmqw</v>
+        <v>fkvWMbUYYvR</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C43" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>heMYpVBrakv</v>
+        <v>QFfvrOOhmqw</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C44" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>i5pakKBw4VC</v>
+        <v>heMYpVBrakv</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>COVAX - Redistributed syringes with needle 1ml</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>eTsKBlD7fsX</v>
+        <v>i5pakKBw4VC</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C46" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>jhutPejtr9l</v>
+        <v>eTsKBlD7fsX</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C47" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>MVmWnSreLrA</v>
+        <v>jhutPejtr9l</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C48" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>HlicGU8jEZL</v>
+        <v>MVmWnSreLrA</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>l2tQDaRuqEG</v>
+        <v>HlicGU8jEZL</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>maGZEvjJYsL</v>
+        <v>l2tQDaRuqEG</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C51" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>ZdJXThga9s1</v>
+        <v>maGZEvjJYsL</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C52" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>IA1dFNpYlvJ</v>
+        <v>ZdJXThga9s1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C53" s="5" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>kJnQ1vmDeDe</v>
+        <v>IA1dFNpYlvJ</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Stock status of other items</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C54" s="4" t="str">
         <v>Zutn3uE4YnV</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>NzVsILZ4qeb</v>
+        <v>kJnQ1vmDeDe</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Total target population</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>G0kKjl2enx4</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>COVAX - Target population</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>BHgqoiEc7mS</v>
+        <v>NzVsILZ4qeb</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>xHWpKcRkeZU</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Stockout days diluent</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>YC0JuESssig</v>
+        <v>zJ5mQhI5EFq</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Targeted priority groups</v>
+        <v>Stock list of other items</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>xHWpKcRkeZU</v>
+        <v>Zutn3uE4YnV</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>oX9rIsHPZzg</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>COVAX - Discarded diluent</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>r2f8mAQGNs6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>COVAX - Discarded dilution syringes</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>v62AZPz5mRY</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>COVAX - Distributed diluent</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>OuzdpuJZr1y</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v>COVAX - Distributed dilution syringes</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>jCEnqxbClud</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>COVAX - Opening balance diluent</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>YC4xkksGZbG</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>COVAX - Opening balance dilution syringes</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>pnZzzVEwo3v</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>COVAX - Received diluent</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>IqKFWe7X45Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>COVAX - Received dilution syringes</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>z9jyGHT6pmR</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>COVAX - Redistributed diluent</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>SD2IQjkn7SG</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v>COVAX - Redistributed dilution syringes</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>qX0ySuNM0QR</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>COVAX - Stock at hand diluent</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>vK53cFjDnqY</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>Stock list of other items</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>Zutn3uE4YnV</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v>COVAX - Stock at hand dilution syringes</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>GhZBoy3prck</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
         <v>Targeted priority groups</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B70" s="4" t="str">
+        <v>Total target population</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>G0kKjl2enx4</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>COVAX - Target population</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>BHgqoiEc7mS</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
         <v>Targeted priority groups</v>
       </c>
-      <c r="C58" s="4" t="str">
+      <c r="B71" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C71" s="5" t="str">
         <v>xHWpKcRkeZU</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D71" s="5" t="str">
+        <v>COVAX - Target frontline healthcare workers</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>YC0JuESssig</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>xHWpKcRkeZU</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>COVAX - Target essential workers</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>vkXAQQDE48p</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Targeted priority groups</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>xHWpKcRkeZU</v>
+      </c>
+      <c r="D73" s="5" t="str">
         <v>COVAX - Target people with at least one underlying medical condition</v>
       </c>
-      <c r="E58" s="4" t="str">
+      <c r="E73" s="5" t="str">
         <v>v2qvl9d2eqz</v>
       </c>
     </row>
@@ -8816,7 +9487,7 @@
         <v>Doses in a vial - Vaccine1</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>fyC1NhjpBH5</v>
@@ -8830,7 +9501,7 @@
         <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>GhXdnHkmph9</v>
@@ -8844,7 +9515,7 @@
         <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>zp3l4iQWPLh</v>
@@ -8856,15 +9527,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -8895,10 +9566,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Doses discarded by reason</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
@@ -8910,7 +9581,7 @@
         <v>Vial condition/Wastage reasons</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>aGlvT5OwKRZ</v>
@@ -8918,22 +9589,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Staff available at centre today</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_CENTRE_TODAY</v>
+        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Total vaccination staff avialable today</v>
+        <v>Total vaccination staff avialable during the reporting period</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>AxmVroGCQZO</v>
@@ -8941,22 +9612,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>People with underlying conditions given 1st dose</v>
+        <v>1st dose - People with underlying conditions</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Total people with underlying medical conditions vaccinated with COVID-19 vaccine</v>
+        <v>People with underlying medical conditions vaccinated with the first dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>BaqWaD6pnbY</v>
@@ -8979,7 +9650,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>BeHrxrKVlAB</v>
@@ -9002,7 +9673,7 @@
         <v>Age(&lt;60-60+years)/Sex</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>BHgqoiEc7mS</v>
@@ -9025,7 +9696,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>c1NTgV45W8M</v>
@@ -9042,13 +9713,13 @@
         <v>CVX_DISTRIBUTED_VIALS</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COVID-19 vaccine doses opening balances</v>
+        <v>COVID-19 vaccine vials opening balances</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>CoCPy5cKxx8</v>
@@ -9071,7 +9742,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>DcW8k9WFCoN</v>
@@ -9079,13 +9750,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Opening balance cold boxes</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVX_OPENING_BALANCE_COLD_BOX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -9094,7 +9765,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>e1YlvfQPdTe</v>
@@ -9117,7 +9788,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>ep7EfKNsX3s</v>
@@ -9140,7 +9811,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>eTsKBlD7fsX</v>
@@ -9148,22 +9819,22 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>1st dose - HCWs</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Total Healthcare workers vaccinated with COVID-19 vaccine</v>
+        <v>Health Care Workers vaccinated with the first dose</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>FCtGm0HJryo</v>
@@ -9171,22 +9842,22 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Staff expected at centre today</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_CENTRE_TODAY</v>
+        <v>CVX_STAFF_EXPECTED_AT_PoC</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Total vaccination staff expected at vaccination centre</v>
+        <v>Total vaccination staff expected at vaccination pont of care during the reporting period</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>FHvsTsdaer9</v>
@@ -9194,22 +9865,22 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>People given last dose</v>
+        <v>Booster dose</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>CVX_PEOPLE_LAST_DOSE</v>
+        <v>CVX_PEOPLE_BOOSTER_DOSE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Total people given last dose</v>
+        <v>People receiving the booster dose of COVID-19 vaccine</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>fJzBX7mW5A9</v>
@@ -9232,7 +9903,7 @@
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>fkvWMbUYYvR</v>
@@ -9240,13 +9911,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Discarded cold boxes</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVX_DISCARDED_COLD_BOX</v>
       </c>
       <c r="D17" s="5" t="str">
         <v/>
@@ -9255,7 +9926,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>gHjdt8paeZt</v>
@@ -9263,82 +9934,82 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - Stock at hand dilution syringes</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>People given 2+ dose</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>CVX_PEOPLE_2PLUS_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>gOf1dLB3r8G</v>
+        <v>GhZBoy3prck</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - AEFIs by vaccine and severity</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>2nd dose</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVX_PEOPLE_2ND_DOSE</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Total number of serious AEFIs reported</v>
+        <v>People receiving the second dose of COVID-19 vaccine</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>COVID19 Vaccine/AEFI Severity</v>
+        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>Gw8sB5U5JG3</v>
+        <v>gOf1dLB3r8G</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Opening balance syringes with needle 1ml</v>
+        <v>COVAX - AEFIs by vaccine and severity</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v>Serious AEFIs reported</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine/AEFI Severity</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>heMYpVBrakv</v>
+        <v>Gw8sB5U5JG3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -9347,67 +10018,67 @@
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>HlicGU8jEZL</v>
+        <v>heMYpVBrakv</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>People with underlying conditions given last dose</v>
+        <v>Discarded safety box</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_LAST_DOSE</v>
+        <v>CVX_DISCARDED_SAFETY_BOX</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>Total people with existing medical conditions given last dose</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>HYYuIK1V5n8</v>
+        <v>HlicGU8jEZL</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Received syringes with needle 1ml</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Booster - People with underlying conditions</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_BOOSTER_DOSE</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v/>
+        <v>People with underlying medical conditions vaccinated with the booster dose</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>i5pakKBw4VC</v>
+        <v>HYYuIK1V5n8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Received syringes with needle 1ml</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
@@ -9416,21 +10087,21 @@
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>IA1dFNpYlvJ</v>
+        <v>i5pakKBw4VC</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Stock on hand syringes with needle 1ml</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_REDISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D25" s="5" t="str">
         <v/>
@@ -9439,44 +10110,44 @@
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>jhutPejtr9l</v>
+        <v>IA1dFNpYlvJ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Received diluent</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Discarded vials</v>
+        <v>Received diluent</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>CVX_DISCARDED_VIALS</v>
+        <v>CVX_RECEIVED_DILUENT</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Total COVID-19 vaccine doses returned (unopened)</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>jpHKXTmXBog</v>
+        <v>IqKFWe7X45Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Distributed dilution syringes</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Stock on hand cold boxes</v>
+        <v>Distributed dilution syringes</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_DILUTION SYRINGES</v>
       </c>
       <c r="D27" s="5" t="str">
         <v/>
@@ -9485,67 +10156,67 @@
         <v>default</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>K1ykBWJNf5C</v>
+        <v>jCEnqxbClud</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Essential workers given last dose</v>
+        <v>Stock at hand syringes with needle 1ml</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_LAST_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>Total Essential workers given last dose</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>KhFJj4Qz57c</v>
+        <v>jhutPejtr9l</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>People given 1st dose</v>
+        <v>Discarded (closed vials)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVX_DISCARDED_CLOSED_VIALS</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>Total people vaccinated with COVID-19 vaccine</v>
+        <v>Number of closed vials that have been discarded</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>kif9K3XRSBh</v>
+        <v>jpHKXTmXBog</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Stock on hand safety boxes</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>CVX_STOCK_ON_HAND_SAFETY_BOXES</v>
+        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="D30" s="4" t="str">
         <v/>
@@ -9554,67 +10225,67 @@
         <v>default</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>kJnQ1vmDeDe</v>
+        <v>K1ykBWJNf5C</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Stock on hand vaccination cards</v>
+        <v>Booster - Essential workers</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_CARDS</v>
+        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v/>
+        <v>Essential workers who received a booster</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>KWInDqcM0sc</v>
+        <v>KhFJj4Qz57c</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - 1st dose given</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Distributed safety boxes</v>
+        <v>1st dose</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVX_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>People receiving the first dose of COVID-19 vaccine</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>default</v>
+        <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>l2tQDaRuqEG</v>
+        <v>kif9K3XRSBh</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>People with underlying conditions given 2+ dose</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2PLUS_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="D33" s="5" t="str">
         <v/>
@@ -9623,21 +10294,21 @@
         <v>default</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>leiFl8fMdd3</v>
+        <v>kJnQ1vmDeDe</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_2PLUS_DOSE</v>
+        <v>CVX_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="D34" s="4" t="str">
         <v/>
@@ -9646,21 +10317,21 @@
         <v>default</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Ly6PaH1qIV3</v>
+        <v>KWInDqcM0sc</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Opening balance safety boxes</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVX_DISTRIBUTED_SAFETY_BOX</v>
       </c>
       <c r="D35" s="5" t="str">
         <v/>
@@ -9669,67 +10340,67 @@
         <v>default</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>maGZEvjJYsL</v>
+        <v>l2tQDaRuqEG</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Received cold boxes</v>
+        <v>2nd dose - People with underlying conditions</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>CVX_RECEIVED_COLD_BOXES</v>
+        <v>CVX_PEOPLE_WITH_UNDERLYING_CONDITIONS_2ND_DOSE</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v/>
+        <v>People with underlying medical conditions vaccinated with the second dose</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>MhtJeFU1s3g</v>
+        <v>leiFl8fMdd3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>COVAX - Stockout days vaccination cards</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>2nd dose - HCWs</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>Health Care Workers who received the second dose</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>mQd64lsZ2Gj</v>
+        <v>Ly6PaH1qIV3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>COVAX - Stockout days syringes with needle 1ml</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_OPENING_BALANCE_SAFETY_BOX</v>
       </c>
       <c r="D38" s="4" t="str">
         <v/>
@@ -9738,44 +10409,44 @@
         <v>default</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>MVmWnSreLrA</v>
+        <v>maGZEvjJYsL</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Received cold box</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Stock on hand vials</v>
+        <v>Received cold box</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>CVX_STOCK_ON_HAND_VIALS</v>
+        <v>CVX_RECEIVED_COLD_BOX</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>Total COVID-19 vaccine doses transferred to another facility</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>Nluny8KPumM</v>
+        <v>MhtJeFU1s3g</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stockout days vaccination cards</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
@@ -9784,21 +10455,21 @@
         <v>default</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>NzVsILZ4qeb</v>
+        <v>mQd64lsZ2Gj</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>COVAX - Redistributed vaccination cards</v>
+        <v>COVAX - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D41" s="5" t="str">
         <v/>
@@ -9807,44 +10478,44 @@
         <v>default</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>p9sHAm0M0WF</v>
+        <v>MVmWnSreLrA</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>COVAX - Distributed syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVX_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v/>
+        <v>Total COVID-19 vaccine doses transferred to another facility</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>QFfvrOOhmqw</v>
+        <v>Nluny8KPumM</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
@@ -9853,44 +10524,44 @@
         <v>default</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>sM3XJvqqU5k</v>
+        <v>NzVsILZ4qeb</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Discarded (open vials)</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Stockout days vaccine3</v>
+        <v>Discarded (open vials)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
+        <v>CVX_DISCARDED_OPEN_VIALS</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v/>
+        <v>Number of open vials that have been discarded</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>default</v>
+        <v>COVID19 Vaccine</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>sNAklHVNhYj</v>
+        <v>oozfHBgiPvP</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Distributed diluent</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOXES</v>
+        <v>CVX_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
@@ -9899,21 +10570,21 @@
         <v>default</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>Sq1bNvKm7eE</v>
+        <v>OuzdpuJZr1y</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days dilution syringes</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Stockout days vaccine2</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
+        <v>CVX_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="D46" s="4" t="str">
         <v/>
@@ -9922,44 +10593,44 @@
         <v>default</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>suWcEhb54Mz</v>
+        <v>oX9rIsHPZzg</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Redistributed vaccination cards</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Frontline healthcare workers given last dose</v>
+        <v>Redistributed vaccination cards</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_LAST_DOSE</v>
+        <v>CVX_REDISTRIBUTED_CARDS</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>Total frontline healthcare workers given last dose</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>u70rr83wIzM</v>
+        <v>p9sHAm0M0WF</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>COVAX - Opening balance vaccination cards</v>
+        <v>COVAX - Opening balance dilution syringes</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>Opening balance dilution syringes</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVX_OPENING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="D48" s="4" t="str">
         <v/>
@@ -9968,44 +10639,44 @@
         <v>default</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>UE9gtRQP6RN</v>
+        <v>pnZzzVEwo3v</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>COVAX - Target people with at least one underlying medical condition</v>
+        <v>COVAX - Distributed syringes with needle 1ml</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Target people with underlying medical conditions</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
+        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>Estimated people with at least one underlying medical condition</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>v2qvl9d2eqz</v>
+        <v>QFfvrOOhmqw</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Redistributed dilution syringes</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Stockout days vaccine1</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
+        <v>CVX_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -10014,44 +10685,44 @@
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>VISxgxU3QF1</v>
+        <v>qX0ySuNM0QR</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>COVAX - Target essential workers</v>
+        <v>COVAX - Discarded diluent</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVX_DISCARDED_DILUENT</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>Estimated essential workers</v>
+        <v/>
       </c>
       <c r="E51" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>vkXAQQDE48p</v>
+        <v>r2f8mAQGNs6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>COVAX - Distributed vaccination cards</v>
+        <v>COVAX - Redistributed diluent</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Redistributed diluent</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVX_REDISTRIBUTED_DILUENT</v>
       </c>
       <c r="D52" s="4" t="str">
         <v/>
@@ -10060,67 +10731,67 @@
         <v>default</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>vThouKg9t52</v>
+        <v>SD2IQjkn7SG</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>COVAX - Redistributed vials</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVX_REDISTRIBUTED_COLD_BOX</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>Total COVID-19 vaccine doses received</v>
+        <v/>
       </c>
       <c r="E53" s="5" t="str">
-        <v>COVID19 Vaccine</v>
+        <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>XgTKGD53X7l</v>
+        <v>sM3XJvqqU5k</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Stockout days vaccine 3</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE3</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>Total Essential workers vaccinated with COVID-19 vaccine</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>xtorWGRMKCn</v>
+        <v>sNAklHVNhYj</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="D55" s="5" t="str">
         <v/>
@@ -10129,21 +10800,21 @@
         <v>default</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>y1TIZ7EacZy</v>
+        <v>Sq1bNvKm7eE</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>COVAX - Target frontline healthcare workers</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Stockout days vaccine 2</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
+        <v>CVX_STOCKOUT_DAYS_VACCINE2</v>
       </c>
       <c r="D56" s="4" t="str">
         <v/>
@@ -10152,44 +10823,44 @@
         <v>default</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>YC0JuESssig</v>
+        <v>suWcEhb54Mz</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Booster - HCWs</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2PLUS_DOSE</v>
+        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v/>
+        <v>Health Care Workers who received a booster</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>Z8SPWzgXYG5</v>
+        <v>u70rr83wIzM</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Opening balance vaccination cards</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Received safety boxes</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOXES</v>
+        <v>CVX_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="D58" s="4" t="str">
         <v/>
@@ -10198,10 +10869,355 @@
         <v>default</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G58" s="4" t="str">
+        <v>UE9gtRQP6RN</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="str">
+        <v>COVAX - Target people with at least one underlying medical condition</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>Target people with underlying medical conditions</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_MEDICAL_CONDITIONS</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <v>Estimated people with at least one underlying medical condition within the target area</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G59" s="5" t="str">
+        <v>v2qvl9d2eqz</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <v>COVAX - Discarded dilution syringes</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Discarded dilution syringes</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>CVX_DISCARDED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <v>v62AZPz5mRY</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="str">
+        <v>COVAX - Stockout days vaccine 1</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>Stockout days vaccine 1</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <v>CVX_STOCKOUT_DAYS_VACCINE1</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <v>VISxgxU3QF1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <v>COVAX - Stock at hand diluent</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>CVX_STOCK_AT_HAND_DILUENT</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <v>vK53cFjDnqY</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="str">
+        <v>COVAX - Target essential workers</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>Target essential workers</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <v>Estimated essential workers within the target area</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <v>vkXAQQDE48p</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="str">
+        <v>COVAX - Distributed vaccination cards</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Distributed vaccination cards</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>CVX_DISTRIBUTED_CARDS</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <v>vThouKg9t52</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="str">
+        <v>COVAX - Redistributed vials</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <v>Redistributed vials</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <v>CVX_REDISTRIBUTED_VIALS</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <v>Total COVID-19 vaccine doses received</v>
+      </c>
+      <c r="E65" s="5" t="str">
+        <v>COVID19 Vaccine</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <v>XgTKGD53X7l</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="str">
+        <v>COVAX - 1st dose given to essential workers</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>1st dose - Essential workers</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>Essential workers vaccinated with the first dose</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <v>xtorWGRMKCn</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="str">
+        <v>COVAX - Distributed cold box</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>Distributed cold box</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <v>CVX_DISTRIBUTED_COLD_BOX</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <v>y1TIZ7EacZy</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="str">
+        <v>COVAX - Target frontline healthcare workers</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Target frontline healthcare workers</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>CVX_TARGET_FRONTLINE_HEALTHCARE_WORKERS</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>Estimated health care workers within the target area</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <v>YC0JuESssig</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="str">
+        <v>COVAX - Opening balance diluent</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <v>Opening balance diluent</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <v>CVX_OPENING_BALANCE_DILUENT</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E69" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <v>YC4xkksGZbG</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="str">
+        <v>COVAX - 2nd dose given to essential workers</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>2nd dose - Essential woekers</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>Essential workers who received the second dose</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <v>Z8SPWzgXYG5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="str">
+        <v>COVAX - Received dilution syringes</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>Received dilution syringes</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <v>CVX_RECEIVED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <v>z9jyGHT6pmR</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="str">
+        <v>COVAX - Received safety box</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Received safety box</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>CVX_RECEIVED_SAFETY_BOX</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <v>ZdJXThga9s1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="str">
+        <v>COVAX - Stockout days diluent</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <v>Stockout days diluent</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <v>CVX_STOCKOUT_DAYS_DILUENT</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <v>2021-02-01</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <v>zJ5mQhI5EFq</v>
       </c>
     </row>
   </sheetData>
@@ -10216,7 +11232,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10232,7 +11248,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Doses discarded by reasons</v>
+        <v>COVAX - Doses discarded by reason</v>
       </c>
     </row>
     <row r="3">
@@ -10240,7 +11256,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Staff available at centre today</v>
+        <v>COVAX - Staff available at PoC</v>
       </c>
     </row>
     <row r="4">
@@ -10248,7 +11264,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 1st dose</v>
+        <v>COVAX - 1st dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="5">
@@ -10296,7 +11312,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Opening balance cold boxes</v>
+        <v>COVAX - Opening balance cold box</v>
       </c>
     </row>
     <row r="11">
@@ -10320,7 +11336,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>COVAX - 1st dose given to HCWs</v>
       </c>
     </row>
     <row r="14">
@@ -10328,7 +11344,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Staff expected at centre today</v>
+        <v>COVAX - Staff expected at PoC</v>
       </c>
     </row>
     <row r="15">
@@ -10336,7 +11352,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - People given last dose</v>
+        <v>COVAX - Booster given</v>
       </c>
     </row>
     <row r="16">
@@ -10352,7 +11368,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Discarded cold boxes</v>
+        <v>COVAX - Discarded cold box</v>
       </c>
     </row>
     <row r="18">
@@ -10360,7 +11376,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - People given 2+ dose</v>
+        <v>COVAX - 2nd dose given</v>
       </c>
     </row>
     <row r="19">
@@ -10384,7 +11400,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX - Discarded safety boxes</v>
+        <v>COVAX - Discarded safety box</v>
       </c>
     </row>
     <row r="22">
@@ -10392,7 +11408,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given last dose</v>
+        <v>COVAX - Booster dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="23">
@@ -10408,7 +11424,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAX - Redistributed safety boxes</v>
+        <v>COVAX - Redistributed safety box</v>
       </c>
     </row>
     <row r="25">
@@ -10416,7 +11432,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Stock on hand syringes with needle 1ml</v>
+        <v>COVAX - Stock at hand syringes with needle 1ml</v>
       </c>
     </row>
     <row r="26">
@@ -10424,7 +11440,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Discarded vials</v>
+        <v>COVAX - Discarded (closed vials)</v>
       </c>
     </row>
     <row r="27">
@@ -10432,7 +11448,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Stock on hand cold boxes</v>
+        <v>COVAX - Stock at hand cold box</v>
       </c>
     </row>
     <row r="28">
@@ -10440,7 +11456,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Essential workers given last dose</v>
+        <v>COVAX - Booster dose given to essential workers</v>
       </c>
     </row>
     <row r="29">
@@ -10448,7 +11464,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>COVAX - People given 1st dose</v>
+        <v>COVAX - 1st dose given</v>
       </c>
     </row>
     <row r="30">
@@ -10456,7 +11472,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COVAX - Stock on hand safety boxes</v>
+        <v>COVAX - Stock at hand safety box</v>
       </c>
     </row>
     <row r="31">
@@ -10464,7 +11480,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>COVAX - Stock on hand vaccination cards</v>
+        <v>COVAX - Stock at hand vaccination cards</v>
       </c>
     </row>
     <row r="32">
@@ -10472,7 +11488,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX - Distributed safety boxes</v>
+        <v>COVAX - Distributed safety box</v>
       </c>
     </row>
     <row r="33">
@@ -10480,7 +11496,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COVAX - People with at least one underlying medical conditions given 2+ dose</v>
+        <v>COVAX - 2nd dose given to people with at least one underlying medical conditions</v>
       </c>
     </row>
     <row r="34">
@@ -10488,7 +11504,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>COVAX - Frontline healthcare workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to HCWs</v>
       </c>
     </row>
     <row r="35">
@@ -10496,7 +11512,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX - Opening balance safety boxes</v>
+        <v>COVAX - Opening balance safety box</v>
       </c>
     </row>
     <row r="36">
@@ -10504,7 +11520,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>COVAX - Received cold boxes</v>
+        <v>COVAX - Received cold box</v>
       </c>
     </row>
     <row r="37">
@@ -10528,7 +11544,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX - Stock on hand vials</v>
+        <v>COVAX - Stock at hand vials</v>
       </c>
     </row>
     <row r="40">
@@ -10536,7 +11552,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COVAX - Stockout days safety boxes</v>
+        <v>COVAX - Stockout days safety box</v>
       </c>
     </row>
     <row r="41">
@@ -10560,7 +11576,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>COVAX - Redistributed cold boxes</v>
+        <v>COVAX - Redistributed cold box</v>
       </c>
     </row>
     <row r="44">
@@ -10568,7 +11584,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>COVAX - Stockout days vaccine3</v>
+        <v>COVAX - Stockout days vaccine 3</v>
       </c>
     </row>
     <row r="45">
@@ -10576,7 +11592,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COVAX - Stockout days cold boxes</v>
+        <v>COVAX - Stockout days cold box</v>
       </c>
     </row>
     <row r="46">
@@ -10584,7 +11600,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>COVAX - Stockout days vaccine2</v>
+        <v>COVAX - Stockout days vaccine 2</v>
       </c>
     </row>
     <row r="47">
@@ -10592,7 +11608,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>COVAX - Frontline healthcare workers given last dose</v>
+        <v>COVAX - Booster dose given to HCWs</v>
       </c>
     </row>
     <row r="48">
@@ -10616,7 +11632,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>COVAX - Stockout days vaccine1</v>
+        <v>COVAX - Stockout days vaccine 1</v>
       </c>
     </row>
     <row r="51">
@@ -10648,7 +11664,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>COVAX - Essential workers given 1st dose</v>
+        <v>COVAX - 1st dose given to essential workers</v>
       </c>
     </row>
     <row r="55">
@@ -10656,7 +11672,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COVAX - Distributed cold boxes</v>
+        <v>COVAX - Distributed cold box</v>
       </c>
     </row>
     <row r="56">
@@ -10672,7 +11688,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>COVAX - Essential workers given 2+ dose</v>
+        <v>COVAX - 2nd dose given to essential workers</v>
       </c>
     </row>
     <row r="58">
@@ -10680,7 +11696,7 @@
         <v>COVAX - Vaccination</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>COVAX - Received safety boxes</v>
+        <v>COVAX - Received safety box</v>
       </c>
     </row>
   </sheetData>
@@ -10719,7 +11735,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-05-11</v>
+        <v>2021-01-31</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -10733,7 +11749,7 @@
         <v>Age(&lt;60-60+years)/Sex/COVID19 Vaccine</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>dn78y6mGmML</v>
@@ -10747,7 +11763,7 @@
         <v>COVID19 Vaccine/AEFI Severity</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>EIc4YmuCrB0</v>
@@ -10761,7 +11777,7 @@
         <v>Age(&lt;60-60+years)/Sex</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ejUQIUINJ58</v>
@@ -10775,7 +11791,7 @@
         <v>Vial condition/Wastage reasons</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>P9CXpIYGFBR</v>
@@ -10789,7 +11805,7 @@
         <v>COVID19 Vaccine</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>VnRusgdMitL</v>
@@ -10834,7 +11850,7 @@
         <v>Discard reasons</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>boNz0GvOobN</v>
@@ -10848,7 +11864,7 @@
         <v>Vial condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>EXJpgAuqHsK</v>
@@ -10862,7 +11878,7 @@
         <v>Sex</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>FRwO58KwwJt</v>
@@ -10876,7 +11892,7 @@
         <v>default</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-02</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>GLevLNI9wkl</v>
@@ -10890,7 +11906,7 @@
         <v>AEFI Severity</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>HaN8FUppNcv</v>
@@ -10904,7 +11920,7 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>sU4c2u8FXMj</v>
@@ -10918,7 +11934,7 @@
         <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-01-29</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>zOt7MceLobG</v>
